--- a/data/chap2/2.1.xlsx
+++ b/data/chap2/2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555400D-5B1C-491C-8219-87984798798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D677F3-3DED-498A-A873-06B27EF6C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="784" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="784" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="91" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="案例3" sheetId="93" r:id="rId3"/>
     <sheet name="案例4" sheetId="90" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,14 +26,40 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
@@ -131,11 +157,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -289,7 +315,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,17 +328,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -320,9 +345,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -424,72 +446,6 @@
     </tableStyle>
   </tableStyles>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF009EDC"/>
       <color rgb="FF024F6C"/>
@@ -522,7 +478,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -717,37 +673,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A1D407-1053-4B21-863C-6774887021CA}">
-  <dimension ref="C3:C7"/>
+  <dimension ref="C3:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" ht="23.4">
-      <c r="C3" s="20" t="s">
+    <row r="3" spans="3:5" ht="22.5">
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="19" t="s">
+    <row r="5" spans="3:5">
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="19" t="s">
+      <c r="D5" s="1">
+        <f>_xlfn.NUMBERVALUE(C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="19" t="s">
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D7" si="0">_xlfn.NUMBERVALUE(C6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="D8" s="1" cm="1">
+        <f t="array" ref="D8">SUM(_xlfn.NUMBERVALUE(D5:D7))</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" cm="1">
+        <f t="array" ref="E8">SUMPRODUCT(VALUE(C5:C7))</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -761,37 +739,49 @@
   <dimension ref="C3:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="24.81640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="23.4">
-      <c r="C3" s="22" t="s">
+    <row r="3" spans="3:5" ht="22.5">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="23">
+      <c r="C5" s="18">
         <v>20210916</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="D5" s="21">
+        <f>--TEXT(C5,"0-00-00")</f>
+        <v>44455</v>
+      </c>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <v>20210917</v>
       </c>
+      <c r="D6" s="21">
+        <f t="shared" ref="D6:D7" si="0">--TEXT(C6,"0-00-00")</f>
+        <v>44456</v>
+      </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <v>20210918</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>44457</v>
       </c>
     </row>
   </sheetData>
@@ -804,38 +794,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E3D309-CCAC-45B5-B26A-051356AEBDA2}">
   <dimension ref="C3:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="24.81640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="23.4">
-      <c r="C3" s="22" t="s">
+    <row r="3" spans="3:5" ht="22.5">
+      <c r="C3" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>44455</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="D5" s="1" t="str">
+        <f>TEXT(C5,"mm/dd/yyyy")</f>
+        <v>09/16/2021</v>
+      </c>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>44456</v>
       </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ref="D6:D7" si="0">TEXT(C6,"mm/dd/yyyy")</f>
+        <v>09/17/2021</v>
+      </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>44457</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>09/18/2021</v>
       </c>
     </row>
   </sheetData>
@@ -848,18 +850,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6FCF3E-EABF-4F5D-A8AA-C2CBF5F30D6F}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="30" customHeight="1">
@@ -883,7 +885,7 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>44450.5</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -891,16 +893,16 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="30" customHeight="1">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>44450.5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -911,7 +913,7 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>44450.5</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -919,16 +921,16 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" customHeight="1">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>44450.5</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -939,7 +941,7 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>44450.5</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -947,16 +949,16 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="30" customHeight="1">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>44450.5</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -967,7 +969,7 @@
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>44450.5</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -975,16 +977,16 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="30" customHeight="1">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>44450.5</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -995,7 +997,7 @@
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>44450.5</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1003,16 +1005,16 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>44450.5</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1023,7 +1025,7 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="5" t="s">
